--- a/files/bid_files/bid.xlsx
+++ b/files/bid_files/bid.xlsx
@@ -333,8 +333,8 @@
   </sheetPr>
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,14 +368,14 @@
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -384,7 +384,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -393,7 +393,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -409,21 +409,21 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -432,14 +432,14 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="131.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>

--- a/files/bid_files/bid.xlsx
+++ b/files/bid_files/bid.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
